--- a/Jogos_da_Semana_FlashScore_2025-06-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,146 @@
           <t>Away</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_H_FT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_FT</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_FT</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over15_FT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under15_FT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +636,90 @@
           <t>Cumbaya</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>30</v>
+      </c>
+      <c r="V2" t="n">
+        <v>26</v>
+      </c>
+      <c r="W2" t="n">
+        <v>40</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>900</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +752,34 @@
           <t>Vargas Torres</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
